--- a/data/default_rate_quarterly.xlsx
+++ b/data/default_rate_quarterly.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Prutki\Challenge Deloitte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a3433c03ebe5f2/Documents/Documents/A_Pantheon_Sorbonne/Mosef/Risque de crédit/Dossier_Challenge/Dossier_Challenge_Nexialog_Mosef/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D370EB26-008B-4396-AF5B-824E44FF24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D370EB26-008B-4396-AF5B-824E44FF24B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AC791D-251C-4FFB-916B-EE2CA3D73E29}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{5176AA90-71B7-46C2-8C1A-F088A20575E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5176AA90-71B7-46C2-8C1A-F088A20575E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,19 +37,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>DR</t>
+    <t xml:space="preserve">DR reel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR fictif nul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DR fictif retenu </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +65,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,25 +117,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -146,31 +170,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Taux de we12 IT GP</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,11 +210,302 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Feuil1!$B$1</c:f>
+              <c:f>Feuil2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DR</c:v>
+                  <c:v>DR reel </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil2!$A$2:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>40209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40390</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40755</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40847</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41121</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41578</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41670</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41759</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41851</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41943</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42035</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42124</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42216</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42308</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42490</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42766</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42855</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42947</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43039</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43131</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43312</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43404</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43496</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43585</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43677</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil2!$B$2:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>5.9661213726834271E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9994563942343459E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9433521880182477E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9465657200645038E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7990023084883385E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7581668087583955E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8629974282969952E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.348597169510162E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3241619134872081E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0473442526336466E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.4703985043887354E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.5476925601862776E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7935214265320422E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6121593291404611E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9015469683219723E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0864478724505641E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2875569388465438E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0363891071855675E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0834483928009107E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.6937178362226384E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5279070936145131E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.2670654361613797E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.7858249823511964E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7455513498446759E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.623136017898794E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9713234798106929E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0604309774415573E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0966998600938194E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0708590097166828E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6359754965658067E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.7693368002255567E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7913906200543542E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7727969647358436E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7448554392900344E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.803393311167612E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.8087466373659681E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.8018062254202364E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8055901814396326E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9807694431376708E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.794750556112691E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BA6-4263-A78A-A178DEA6E3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DR fictif retenu </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -234,7 +524,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$41</c:f>
+              <c:f>Feuil2!$A$2:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="40"/>
@@ -363,129 +653,129 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$41</c:f>
+              <c:f>Feuil2!$C$2:$C$41</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>5.9661213726834271E-2</c:v>
+                  <c:v>7.9942395754051168E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9994563942343459E-2</c:v>
+                  <c:v>7.4491943827598439E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9433521880182477E-2</c:v>
+                  <c:v>7.4280498065882716E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9465657200645038E-2</c:v>
+                  <c:v>7.353800585954326E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7990023084883385E-2</c:v>
+                  <c:v>7.1846564090506201E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7581668087583955E-2</c:v>
+                  <c:v>7.268644937635961E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8629974282969952E-2</c:v>
+                  <c:v>6.8599483926848295E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.348597169510162E-2</c:v>
+                  <c:v>6.4750093879914719E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3241619134872081E-2</c:v>
+                  <c:v>6.2289024304878107E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0473442526336466E-2</c:v>
+                  <c:v>6.3288439832647592E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4703985043887354E-2</c:v>
+                  <c:v>6.7459240456218469E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5476925601862776E-2</c:v>
+                  <c:v>6.9970473189083046E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7935214265320422E-2</c:v>
+                  <c:v>7.0484631857126251E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6121593291404611E-2</c:v>
+                  <c:v>7.1477039869832004E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9015469683219723E-2</c:v>
+                  <c:v>7.5147624328243054E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.0864478724505641E-2</c:v>
+                  <c:v>7.8103421152738745E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.2875569388465438E-2</c:v>
+                  <c:v>7.7684139607064079E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0363891071855675E-2</c:v>
+                  <c:v>7.6120601847691177E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0834483928009107E-2</c:v>
+                  <c:v>7.2541618852650563E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6937178362226384E-2</c:v>
+                  <c:v>6.9103519958699622E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5279070936145131E-2</c:v>
+                  <c:v>6.6890485326722246E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2670654361613797E-2</c:v>
+                  <c:v>6.0253187547200437E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7858249823511964E-2</c:v>
+                  <c:v>5.6694187955834217E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7455513498446759E-2</c:v>
+                  <c:v>5.6536073867872433E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.623136017898794E-2</c:v>
+                  <c:v>5.0531389437336961E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.9713234798106929E-2</c:v>
+                  <c:v>4.5406781937797694E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.0604309774415573E-2</c:v>
+                  <c:v>4.6147885082624934E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0966998600938194E-2</c:v>
+                  <c:v>4.5701952864023315E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.0708590097166828E-2</c:v>
+                  <c:v>4.2772200378831712E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6359754965658067E-2</c:v>
+                  <c:v>4.0788323601993602E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.7693368002255567E-2</c:v>
+                  <c:v>4.1734123591427322E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.7913906200543542E-2</c:v>
+                  <c:v>4.1754623422974133E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7727969647358436E-2</c:v>
+                  <c:v>4.147435477177331E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.7448554392900344E-2</c:v>
+                  <c:v>4.1467516944405626E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.803393311167612E-2</c:v>
+                  <c:v>4.2101712131727941E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.8087466373659681E-2</c:v>
+                  <c:v>4.2085456694274458E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.8018062254202364E-2</c:v>
+                  <c:v>4.2101042180536348E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.8055901814396326E-2</c:v>
+                  <c:v>4.3368315611694117E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.9807694431376708E-2</c:v>
+                  <c:v>4.3140185967573651E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.794750556112691E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E49-4151-95B4-86DE71E5FB98}"/>
+              <c16:uniqueId val="{00000001-7BA6-4263-A78A-A178DEA6E3C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -506,11 +796,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="834927352"/>
-        <c:axId val="834925056"/>
+        <c:axId val="463752960"/>
+        <c:axId val="463738560"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="834927352"/>
+        <c:axId val="463752960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,16 +843,17 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834925056"/>
+        <c:crossAx val="463738560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="834925056"/>
+        <c:axId val="463738560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2.0000000000000004E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -611,7 +902,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="834927352"/>
+        <c:crossAx val="463752960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -623,15 +914,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1227,15 +1542,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1243,7 +1558,7 @@
         <xdr:cNvPr id="2" name="Graphique 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B81C9050-DC2D-4F13-804C-E219011ABC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC6CE338-89A0-6895-E8BD-C7D2A5AF125B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1262,6 +1577,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,19 +1880,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1AA0ED-07EC-4A13-8911-BB7B6C3AF7A6}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,325 +1901,448 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>40209</v>
       </c>
-      <c r="B2" s="3">
-        <v>5.9661213726834271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
+      <c r="B2">
+        <v>8.3141682683433499E-2</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>40298</v>
       </c>
-      <c r="B3" s="3">
-        <v>4.9994563942343459E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
+      <c r="B3">
+        <v>7.4472903048504804E-2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>40390</v>
       </c>
-      <c r="B4" s="3">
-        <v>4.9433521880182477E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
+      <c r="B4">
+        <v>7.444208291450681E-2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>40482</v>
       </c>
-      <c r="B5" s="3">
-        <v>4.9465657200645038E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
+      <c r="B5">
+        <v>7.3222142728122885E-2</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>40574</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.7990023084883385E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
+      <c r="B6">
+        <v>7.1853960474621378E-2</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>40663</v>
       </c>
-      <c r="B7" s="3">
-        <v>4.7581668087583955E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
+      <c r="B7">
+        <v>7.1347267507622616E-2</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>40755</v>
       </c>
-      <c r="B8" s="3">
-        <v>4.8629974282969952E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
+      <c r="B8">
+        <v>6.9263695510296125E-2</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>40847</v>
       </c>
-      <c r="B9" s="3">
-        <v>4.348597169510162E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
+      <c r="B9">
+        <v>6.4903466419718225E-2</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>40939</v>
       </c>
-      <c r="B10" s="3">
-        <v>4.3241619134872081E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
+      <c r="B10">
+        <v>6.2594132796425908E-2</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>41029</v>
       </c>
-      <c r="B11" s="3">
-        <v>4.0473442526336466E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
+      <c r="B11">
+        <v>6.3092758545308256E-2</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>41121</v>
       </c>
-      <c r="B12" s="3">
-        <v>4.4703985043887354E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
+      <c r="B12">
+        <v>6.7583719819152482E-2</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>41213</v>
       </c>
-      <c r="B13" s="3">
-        <v>4.5476925601862776E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
+      <c r="B13">
+        <v>7.0239535712094778E-2</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>41305</v>
       </c>
-      <c r="B14" s="3">
-        <v>4.7935214265320422E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
+      <c r="B14">
+        <v>7.0895282900522827E-2</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>41394</v>
       </c>
-      <c r="B15" s="3">
-        <v>4.6121593291404611E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
+      <c r="B15">
+        <v>7.0813270684175783E-2</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>41486</v>
       </c>
-      <c r="B16" s="3">
-        <v>4.9015469683219723E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
+      <c r="B16">
+        <v>7.4838014242923565E-2</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>41578</v>
       </c>
-      <c r="B17" s="3">
-        <v>5.0864478724505641E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
+      <c r="B17">
+        <v>7.8007580223432127E-2</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>41670</v>
       </c>
-      <c r="B18" s="3">
-        <v>5.2875569388465438E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
+      <c r="B18">
+        <v>7.7258330968676153E-2</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>41759</v>
       </c>
-      <c r="B19" s="3">
-        <v>5.0363891071855675E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
+      <c r="B19">
+        <v>7.537944469643458E-2</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>41851</v>
       </c>
-      <c r="B20" s="3">
-        <v>5.0834483928009107E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
+      <c r="B20">
+        <v>7.343534664585244E-2</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>41943</v>
       </c>
-      <c r="B21" s="3">
-        <v>4.6937178362226384E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
+      <c r="B21">
+        <v>6.9245732101071655E-2</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>42035</v>
       </c>
-      <c r="B22" s="3">
-        <v>4.5279070936145131E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
+      <c r="B22">
+        <v>6.6287984663003965E-2</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>42124</v>
       </c>
-      <c r="B23" s="3">
-        <v>4.2670654361613797E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
+      <c r="B23">
+        <v>6.0439852817710152E-2</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>42216</v>
       </c>
-      <c r="B24" s="3">
-        <v>3.7858249823511964E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
+      <c r="B24">
+        <v>5.6441066253303473E-2</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>42308</v>
       </c>
-      <c r="B25" s="3">
-        <v>3.7455513498446759E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
+      <c r="B25">
+        <v>5.4419079560755645E-2</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>42400</v>
       </c>
-      <c r="B26" s="3">
-        <v>3.623136017898794E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
+      <c r="B26">
+        <v>4.8982268862544844E-2</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>42490</v>
       </c>
-      <c r="B27" s="3">
-        <v>2.9713234798106929E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
+      <c r="B27">
+        <v>4.5294651756629424E-2</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>42582</v>
       </c>
-      <c r="B28" s="3">
-        <v>3.0604309774415573E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
+      <c r="B28">
+        <v>4.6182098111206119E-2</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>42674</v>
       </c>
-      <c r="B29" s="3">
-        <v>3.0966998600938194E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
+      <c r="B29">
+        <v>4.552508718166258E-2</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>42766</v>
       </c>
-      <c r="B30" s="3">
-        <v>3.0708590097166828E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
+      <c r="B30">
+        <v>4.2761559124901358E-2</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>42855</v>
       </c>
-      <c r="B31" s="3">
-        <v>2.6359754965658067E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
+      <c r="B31">
+        <v>4.0491660259899281E-2</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>42947</v>
       </c>
-      <c r="B32" s="3">
-        <v>2.7693368002255567E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
+      <c r="B32">
+        <v>4.1646282787011858E-2</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>43039</v>
       </c>
-      <c r="B33" s="3">
-        <v>2.7913906200543542E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
+      <c r="B33">
+        <v>4.1672799083408041E-2</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>43131</v>
       </c>
-      <c r="B34" s="3">
-        <v>2.7727969647358436E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
+      <c r="B34">
+        <v>4.1415994005680107E-2</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>43220</v>
       </c>
-      <c r="B35" s="3">
-        <v>2.7448554392900344E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
+      <c r="B35">
+        <v>4.1661141398198438E-2</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>43312</v>
       </c>
-      <c r="B36" s="3">
-        <v>2.803393311167612E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
+      <c r="B36">
+        <v>4.2093418625411327E-2</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>43404</v>
       </c>
-      <c r="B37" s="3">
-        <v>2.8087466373659681E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
+      <c r="B37">
+        <v>4.2074767030324062E-2</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>43496</v>
       </c>
-      <c r="B38" s="3">
-        <v>2.8018062254202364E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
+      <c r="B38">
+        <v>4.1991139029832668E-2</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>43585</v>
       </c>
-      <c r="B39" s="3">
-        <v>2.8055901814396326E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
+      <c r="B39">
+        <v>4.3425899702672695E-2</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>43677</v>
       </c>
-      <c r="B40" s="3">
-        <v>2.9807694431376708E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="5">
+      <c r="B40">
+        <v>4.3524069791288693E-2</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>43769</v>
       </c>
-      <c r="B41" s="3">
-        <v>2.794750556112691E-2</v>
-      </c>
+      <c r="B41">
+        <v>4.3524069791288693E-2</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,6 +2350,635 @@
   <headerFooter>
     <oddFooter>&amp;R&amp;1#&amp;"Arial"&amp;10&amp;K000000Confidential C</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36E832-B577-400F-82FD-A7B4911371AD}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>40209</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5.9661213726834271E-2</v>
+      </c>
+      <c r="C2">
+        <f ca="1">_xlfn.NORM.INV(RAND(),(AVERAGE(B2:B3))*1.5, STDEV(B2:B4)*0.2)</f>
+        <v>7.9942395754051168E-2</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5.8975874549441122E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>40298</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4.9994563942343459E-2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C41" ca="1" si="0">_xlfn.NORM.INV(RAND(),(AVERAGE(B3:B4))*1.5, STDEV(B3:B5)*0.2)</f>
+        <v>7.4491943827598439E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>5.5683134531375994E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>40390</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4.9433521880182477E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4280498065882716E-2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.3051168718354559E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>40482</v>
+      </c>
+      <c r="B5" s="8">
+        <v>4.9465657200645038E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.353800585954326E-2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5.2728225969024822E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>40574</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4.7990023084883385E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1846564090506201E-2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5.4375093971727947E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>40663</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4.7581668087583955E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.268644937635961E-2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>5.5209298990324132E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>40755</v>
+      </c>
+      <c r="B8" s="8">
+        <v>4.8629974282969952E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.8599483926848295E-2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5.020370844552275E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>40847</v>
+      </c>
+      <c r="B9" s="8">
+        <v>4.348597169510162E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4750093879914719E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4.8556871918093575E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>40939</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4.3241619134872081E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.2289024304878107E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4.7313671347054657E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>41029</v>
+      </c>
+      <c r="B11" s="8">
+        <v>4.0473442526336466E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3288439832647592E-2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4.7887166254671376E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>41121</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4.4703985043887354E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7459240456218469E-2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5.1990677008904751E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>41213</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4.5476925601862776E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9970473189083046E-2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>5.3927222965510786E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>41305</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4.7935214265320422E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0484631857126251E-2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5.5909066431344613E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>41394</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4.6121593291404611E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1477039869832004E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5.6795683436620795E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>41486</v>
+      </c>
+      <c r="B16" s="8">
+        <v>4.9015469683219723E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5147624328243054E-2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>5.9095145208549825E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>41578</v>
+      </c>
+      <c r="B17" s="8">
+        <v>5.0864478724505641E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8103421152738745E-2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5.8590207878824282E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>41670</v>
+      </c>
+      <c r="B18" s="8">
+        <v>5.2875569388465438E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.7684139607064079E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5.6968339041606302E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>41759</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.0363891071855675E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.6120601847691177E-2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5.6464414800567408E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>41851</v>
+      </c>
+      <c r="B20" s="8">
+        <v>5.0834483928009107E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2541618852650563E-2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>5.7516636364521062E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>41943</v>
+      </c>
+      <c r="B21" s="8">
+        <v>4.6937178362226384E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9103519958699622E-2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4.7272269220535262E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>42035</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4.5279070936145131E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.6890485326722246E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4.9657569844746757E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>42124</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4.2670654361613797E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.0253187547200437E-2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4.7649543411726218E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>42216</v>
+      </c>
+      <c r="B24" s="8">
+        <v>3.7858249823511964E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6694187955834217E-2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4.2545487394666459E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>42308</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3.7455513498446759E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6536073867872433E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3.3862215659870173E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>42400</v>
+      </c>
+      <c r="B26" s="8">
+        <v>3.623136017898794E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0531389437336961E-2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3.2363849673605033E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>42490</v>
+      </c>
+      <c r="B27" s="8">
+        <v>2.9713234798106929E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5406781937797694E-2</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3.3853252419284982E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>42582</v>
+      </c>
+      <c r="B28" s="8">
+        <v>3.0604309774415573E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6147885082624934E-2</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3.4629451425719979E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>42674</v>
+      </c>
+      <c r="B29" s="8">
+        <v>3.0966998600938194E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5701952864023315E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3.3280933856607173E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>42766</v>
+      </c>
+      <c r="B30" s="8">
+        <v>3.0708590097166828E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2772200378831712E-2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3.514455895306412E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>42855</v>
+      </c>
+      <c r="B31" s="8">
+        <v>2.6359754965658067E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0788323601993602E-2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3.0349831175800736E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>42947</v>
+      </c>
+      <c r="B32" s="8">
+        <v>2.7693368002255567E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1734123591427322E-2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3.0948701955644819E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43039</v>
+      </c>
+      <c r="B33" s="8">
+        <v>2.7913906200543542E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1754623422974133E-2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3.0879124611572776E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>43131</v>
+      </c>
+      <c r="B34" s="8">
+        <v>2.7727969647358436E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.147435477177331E-2</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3.083562476157034E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>43220</v>
+      </c>
+      <c r="B35" s="8">
+        <v>2.7448554392900344E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.1467516944405626E-2</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3.1233742342360881E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>43312</v>
+      </c>
+      <c r="B36" s="8">
+        <v>2.803393311167612E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2101712131727941E-2</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3.1479510051161425E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>43404</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2.8087466373659681E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2085456694274458E-2</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3.1585761015930816E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43496</v>
+      </c>
+      <c r="B38" s="8">
+        <v>2.8018062254202364E-2</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2101042180536348E-2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3.2453516352661443E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43585</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2.8055901814396326E-2</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3368315611694117E-2</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3.2820228995558781E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B40" s="8">
+        <v>2.9807694431376708E-2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3140185967573651E-2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3.2818919429426677E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B41" s="8">
+        <v>2.794750556112691E-2</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3.44E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>